--- a/data/transactions_excel_test.xlsx
+++ b/data/transactions_excel_test.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RA1897\PycharmProjects\prj013\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D102B68-79CE-4C42-9A1B-BD40BC7D6871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F026EC42-13C4-49BE-B0F8-1A3744752EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="2" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -194,117 +194,6 @@
   </si>
   <si>
     <t>American Express 5556525473658852</t>
-  </si>
-  <si>
-    <t>2021-07-08T07:31:21Z</t>
-  </si>
-  <si>
-    <t>Ruble</t>
-  </si>
-  <si>
-    <t>RUB</t>
-  </si>
-  <si>
-    <t>Visa 0773092093872450</t>
-  </si>
-  <si>
-    <t>Discover 8602781449570491</t>
-  </si>
-  <si>
-    <t>2023-01-25T13:33:00Z</t>
-  </si>
-  <si>
-    <t>Krona</t>
-  </si>
-  <si>
-    <t>SEK</t>
-  </si>
-  <si>
-    <t>Счет 35662766798195077538</t>
-  </si>
-  <si>
-    <t>PENDING</t>
-  </si>
-  <si>
-    <t>2020-06-07T11:11:36Z</t>
-  </si>
-  <si>
-    <t>Visa 5749750597771353</t>
-  </si>
-  <si>
-    <t>American Express 9106381490184499</t>
-  </si>
-  <si>
-    <t>2020-10-04T12:12:23Z</t>
-  </si>
-  <si>
-    <t>Discover 9058011549803523</t>
-  </si>
-  <si>
-    <t>Mastercard 5266726031439012</t>
-  </si>
-  <si>
-    <t>2021-08-30T12:27:22Z</t>
-  </si>
-  <si>
-    <t>Счет 53688013223998817599</t>
-  </si>
-  <si>
-    <t>2021-11-02T13:32:15Z</t>
-  </si>
-  <si>
-    <t>Счет 65547878890984510340</t>
-  </si>
-  <si>
-    <t>Счет 91457207307678002163</t>
-  </si>
-  <si>
-    <t>Перевод со счета на счет</t>
-  </si>
-  <si>
-    <t>2021-05-11T10:06:51Z</t>
-  </si>
-  <si>
-    <t>Счет 17847122626293622323</t>
-  </si>
-  <si>
-    <t>Счет 68570011224094542755</t>
-  </si>
-  <si>
-    <t>2022-08-09T17:12:27Z</t>
-  </si>
-  <si>
-    <t>Visa 2717112074981212</t>
-  </si>
-  <si>
-    <t>Discover 8397322380849617</t>
-  </si>
-  <si>
-    <t>2023-05-14T18:57:16Z</t>
-  </si>
-  <si>
-    <t>PHP</t>
-  </si>
-  <si>
-    <t>Visa 5962584244183755</t>
-  </si>
-  <si>
-    <t>Mastercard 8961651103972237</t>
-  </si>
-  <si>
-    <t>2021-09-24T14:59:04Z</t>
-  </si>
-  <si>
-    <t>Yen</t>
-  </si>
-  <si>
-    <t>JPY</t>
-  </si>
-  <si>
-    <t>Visa 6665114452549732</t>
-  </si>
-  <si>
-    <t>American Express 7292521342622607</t>
   </si>
 </sst>
 </file>
@@ -1632,11 +1521,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2E4295-F096-4A4E-8FB0-9DB00E43EA2A}">
-  <dimension ref="A1:I21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E299D996-1206-4D88-9B34-B0F3F73BC360}">
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1954,292 +1843,6 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="6">
-        <v>4234093</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="9">
-        <v>23182</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="6">
-        <v>3107343</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="9">
-        <v>33639</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="6">
-        <v>2130098</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="9">
-        <v>30731</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="6">
-        <v>4653427</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="9">
-        <v>34072</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="6">
-        <v>4641894</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="9">
-        <v>11111</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="6">
-        <v>4813301</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="9">
-        <v>15080</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="6">
-        <v>1449073</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="9">
-        <v>11834</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="6">
-        <v>2029174</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="9">
-        <v>34143</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="6">
-        <v>293898</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="9">
-        <v>14031</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="6">
-        <v>1849472</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="9">
-        <v>21741</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
